--- a/CoreCapitalEvaluation.xlsx
+++ b/CoreCapitalEvaluation.xlsx
@@ -14,33 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="65">
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>McMilan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="59">
+  <si>
+    <t>UsuarioPrueba</t>
+  </si>
+  <si>
+    <t>prueba2</t>
+  </si>
+  <si>
+    <t>Prueba3</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>apellido2</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>DNI</t>
   </si>
   <si>
     <t>Pasaporte</t>
   </si>
   <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>76217659</t>
-  </si>
-  <si>
-    <t>456123</t>
-  </si>
-  <si>
-    <t>165432</t>
+    <t>12234567</t>
+  </si>
+  <si>
+    <t>4564456789</t>
+  </si>
+  <si>
+    <t>1223456754</t>
   </si>
   <si>
     <t>D1. Por favor indica tu género</t>
@@ -100,22 +106,46 @@
     <t>1. Si.</t>
   </si>
   <si>
-    <t>5. Alto.</t>
-  </si>
-  <si>
-    <t>4. Adrenalina.</t>
-  </si>
-  <si>
-    <t>4. Sí, con cierta frecuencia.</t>
+    <t>1. Extremadamente bajo.</t>
+  </si>
+  <si>
+    <t>2. Incertidumbre.</t>
+  </si>
+  <si>
+    <t>1. No, nunca.</t>
   </si>
   <si>
     <t>3. No estoy seguro.</t>
   </si>
   <si>
-    <t>4. Principalmente comisión.</t>
-  </si>
-  <si>
-    <t>5. Muy alto.</t>
+    <t>2. Principalmente salario.</t>
+  </si>
+  <si>
+    <t>1. Muy pequeño.</t>
+  </si>
+  <si>
+    <t>1. Cualquier caída en el valor me haría sentir incómodo(a).</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2. Posibilidad de pérdida muy baja.</t>
+  </si>
+  <si>
+    <t>1. Siempre hacia un riesgo menor.</t>
+  </si>
+  <si>
+    <t>3. Bajo.</t>
+  </si>
+  <si>
+    <t>2. Sí, aunque muy raramente.</t>
+  </si>
+  <si>
+    <t>2. Probablemente más seguridad laboral con un pequeño aumento salarial.</t>
+  </si>
+  <si>
+    <t>3. Combinación equitativa de salario y comisión.</t>
   </si>
   <si>
     <t>2. Pequeño.</t>
@@ -124,64 +154,16 @@
     <t>2. Máximo 5%</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3. Posibilidad de pérdida moderadamente baja.</t>
-  </si>
-  <si>
-    <t>5. Siempre hacia mayor riesgo.</t>
-  </si>
-  <si>
-    <t>3. Sí, aunque con poca frecuencia.</t>
-  </si>
-  <si>
-    <t>4. Probablemente menos seguridad laboral con un gran aumento salarial.</t>
-  </si>
-  <si>
-    <t>3. Combinación equitativa de salario y comisión.</t>
-  </si>
-  <si>
-    <t>6. Máximo 25%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3. Sin cambios o cambios sin una dirección clara.</t>
-  </si>
-  <si>
-    <t>1. Extremadamente bajo.</t>
-  </si>
-  <si>
-    <t>1. Peligro.</t>
-  </si>
-  <si>
-    <t>1. No, nunca.</t>
-  </si>
-  <si>
-    <t>1. Definitivamente más seguridad laboral con un pequeño aumento salarial.</t>
-  </si>
-  <si>
-    <t>1. Todo salario.</t>
-  </si>
-  <si>
-    <t>1. Muy pequeño.</t>
-  </si>
-  <si>
-    <t>1. Cualquier caída en el valor me haría sentir incómodo(a).</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1. Cero, es decir, sin posibilidad de pérdida.</t>
-  </si>
-  <si>
-    <t>1. Siempre hacia un riesgo menor.</t>
+    <t>2. Principalmente hacia un riesgo menor.</t>
   </si>
   <si>
     <t>Agresivo</t>
+  </si>
+  <si>
+    <t>Mod. Agresivo</t>
+  </si>
+  <si>
+    <t>Adverso</t>
   </si>
   <si>
     <t xml:space="preserve">Creado: </t>
@@ -573,1336 +555,1336 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>44497.52005787037</v>
+        <v>44497.96084490741</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>44497.52674768519</v>
+        <v>44497.97325231481</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
         <v>49</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>44497.54042824074</v>
+        <v>44497.97670138889</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/CoreCapitalEvaluation.xlsx
+++ b/CoreCapitalEvaluation.xlsx
@@ -14,24 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
-  <si>
-    <t>andres condezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> condezo monge</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="94">
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>qweqe</t>
+  </si>
+  <si>
+    <t>pepito</t>
+  </si>
+  <si>
+    <t>qweerw</t>
+  </si>
+  <si>
+    <t>dasdsa</t>
+  </si>
+  <si>
+    <t>McMilan</t>
+  </si>
+  <si>
+    <t>wqeqe</t>
+  </si>
+  <si>
+    <t>pipo</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>qweaweqwe</t>
+  </si>
+  <si>
+    <t>asdasdsad</t>
   </si>
   <si>
     <t>DNI</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Carnet de Extranjería</t>
+  </si>
+  <si>
+    <t>165432</t>
+  </si>
+  <si>
+    <t>26153478</t>
+  </si>
+  <si>
+    <t>1636552</t>
+  </si>
+  <si>
+    <t>76217659</t>
+  </si>
+  <si>
+    <t>456123</t>
+  </si>
+  <si>
+    <t>369852</t>
+  </si>
+  <si>
+    <t>12368547</t>
   </si>
   <si>
     <t>D1. Por favor indica tu género</t>
   </si>
   <si>
-    <t>D2. ¿Eres mayor de edad?</t>
+    <t>D2. Por favor indica tu edad en años cumplidos</t>
   </si>
   <si>
     <t>F1. ¿Alguna vez has invertido en productos financieros?</t>
@@ -76,7 +130,7 @@
     <t>1. Masculino</t>
   </si>
   <si>
-    <t>1. Si</t>
+    <t>Placeholder</t>
   </si>
   <si>
     <t>1. Sí.</t>
@@ -85,37 +139,133 @@
     <t>1. Si.</t>
   </si>
   <si>
+    <t>1. Extremadamente bajo.</t>
+  </si>
+  <si>
+    <t>1. Peligro.</t>
+  </si>
+  <si>
+    <t>1. No, nunca.</t>
+  </si>
+  <si>
+    <t>1. Definitivamente más seguridad laboral con un pequeño aumento salarial.</t>
+  </si>
+  <si>
+    <t>1. Todo salario.</t>
+  </si>
+  <si>
+    <t>1. Muy pequeño.</t>
+  </si>
+  <si>
+    <t>1. Cualquier caída en el valor me haría sentir incómodo(a).</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1. Cero, es decir, sin posibilidad de pérdida.</t>
+  </si>
+  <si>
+    <t>1. Siempre hacia un riesgo menor.</t>
+  </si>
+  <si>
+    <t>3. Oportunidad.</t>
+  </si>
+  <si>
+    <t>4. Sí, con cierta frecuencia.</t>
+  </si>
+  <si>
+    <t>3. No estoy seguro.</t>
+  </si>
+  <si>
+    <t>2. Principalmente salario.</t>
+  </si>
+  <si>
+    <t>3. Medio.</t>
+  </si>
+  <si>
+    <t>2. Pequeño.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3. Sin cambios o cambios sin una dirección clara.</t>
+  </si>
+  <si>
+    <t>2. Muy bajo.</t>
+  </si>
+  <si>
+    <t>2. Incertidumbre.</t>
+  </si>
+  <si>
+    <t>3. Combinación equitativa de salario y comisión.</t>
+  </si>
+  <si>
+    <t>4. Máximo 15%.</t>
+  </si>
+  <si>
+    <t>2. Posibilidad de pérdida muy baja.</t>
+  </si>
+  <si>
+    <t>2. Principalmente hacia un riesgo menor.</t>
+  </si>
+  <si>
     <t>5. Alto.</t>
   </si>
   <si>
-    <t>1. Peligro.</t>
-  </si>
-  <si>
-    <t>4. Sí, con cierta frecuencia.</t>
-  </si>
-  <si>
-    <t>2. Probablemente más seguridad laboral con un pequeño aumento salarial.</t>
-  </si>
-  <si>
-    <t>1. Todo salario.</t>
-  </si>
-  <si>
-    <t>1. Muy pequeño.</t>
-  </si>
-  <si>
-    <t>3. Medio.</t>
+    <t>4. Adrenalina.</t>
+  </si>
+  <si>
+    <t>4. Principalmente comisión.</t>
+  </si>
+  <si>
+    <t>5. Muy alto.</t>
   </si>
   <si>
     <t>2. Máximo 5%</t>
   </si>
   <si>
-    <t>1. Alto Riesgo &amp; Alto Retorno: 0%, Medio Riesgo &amp; Medio Retorno: 0%, Bajo Riesgo &amp; Bajo Retorno: 100%</t>
-  </si>
-  <si>
-    <t>1. Cero, es decir, sin posibilidad de pérdida.</t>
-  </si>
-  <si>
-    <t>1. Siempre hacia un riesgo menor.</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3. Posibilidad de pérdida moderadamente baja.</t>
+  </si>
+  <si>
+    <t>5. Siempre hacia mayor riesgo.</t>
+  </si>
+  <si>
+    <t>3. Sí, aunque con poca frecuencia.</t>
+  </si>
+  <si>
+    <t>4. Probablemente menos seguridad laboral con un gran aumento salarial.</t>
+  </si>
+  <si>
+    <t>6. Máximo 25%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7. Extremadamente alto.</t>
+  </si>
+  <si>
+    <t>5. Sí, con mucha frecuencia.</t>
+  </si>
+  <si>
+    <t>5. Definitivamente menos seguridad laboral con un gran aumento salarial.</t>
+  </si>
+  <si>
+    <t>5. Todo comisión.</t>
+  </si>
+  <si>
+    <t>8. Más del 30%.</t>
+  </si>
+  <si>
+    <t>Agresivo</t>
+  </si>
+  <si>
+    <t>Mod. Adverso</t>
   </si>
   <si>
     <t>Adverso</t>
@@ -197,8 +347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0">
-  <autoFilter ref="A1:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I106" totalsRowShown="0">
+  <autoFilter ref="A1:I106"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Creado: "/>
     <tableColumn id="2" name="Nombre"/>
@@ -499,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,466 +660,3076 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>44498.02890046296</v>
+        <v>44497.54042824074</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>44498.04193287037</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44498.05535879629</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
         <v>33</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
         <v>34</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>44497.52005787037</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>44497.52674768519</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>43</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>44498.00184027778</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>39</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+      <c r="I96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>68</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s">
+        <v>81</v>
+      </c>
+      <c r="H103">
+        <v>8</v>
+      </c>
+      <c r="I103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>44497.99914351852</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/CoreCapitalEvaluation.xlsx
+++ b/CoreCapitalEvaluation.xlsx
@@ -14,18 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
-  <si>
-    <t>userage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> condezo monge</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="86">
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>luis</t>
+  </si>
+  <si>
+    <t>Huaripayta</t>
   </si>
   <si>
     <t>DNI</t>
   </si>
   <si>
-    <t>123456654</t>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Carnet de Extranjería</t>
+  </si>
+  <si>
+    <t>4563217</t>
+  </si>
+  <si>
+    <t>75632148</t>
+  </si>
+  <si>
+    <t>85142367</t>
+  </si>
+  <si>
+    <t>3652748</t>
+  </si>
+  <si>
+    <t>6585123</t>
   </si>
   <si>
     <t>D1. Por favor indica tu género</t>
@@ -85,40 +115,136 @@
     <t>1. Si.</t>
   </si>
   <si>
+    <t>7. Extremadamente alto.</t>
+  </si>
+  <si>
+    <t>4. Adrenalina.</t>
+  </si>
+  <si>
+    <t>3. Sí, aunque con poca frecuencia.</t>
+  </si>
+  <si>
+    <t>5. Definitivamente menos seguridad laboral con un gran aumento salarial.</t>
+  </si>
+  <si>
+    <t>2. Principalmente salario.</t>
+  </si>
+  <si>
+    <t>5. Muy alto.</t>
+  </si>
+  <si>
+    <t>1. Muy pequeño.</t>
+  </si>
+  <si>
+    <t>8. Más del 30%.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3. Posibilidad de pérdida moderadamente baja.</t>
+  </si>
+  <si>
+    <t>3. Sin cambios o cambios sin una dirección clara.</t>
+  </si>
+  <si>
+    <t>5. Sí, con mucha frecuencia.</t>
+  </si>
+  <si>
+    <t>5. Todo comisión.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4. 50% de probabilidad de pérdida.</t>
+  </si>
+  <si>
+    <t>5. Siempre hacia mayor riesgo.</t>
+  </si>
+  <si>
+    <t>4. Promedio.</t>
+  </si>
+  <si>
+    <t>3. Oportunidad.</t>
+  </si>
+  <si>
+    <t>1. No, nunca.</t>
+  </si>
+  <si>
+    <t>4. Probablemente menos seguridad laboral con un gran aumento salarial.</t>
+  </si>
+  <si>
+    <t>3. Combinación equitativa de salario y comisión.</t>
+  </si>
+  <si>
+    <t>2. Pequeño.</t>
+  </si>
+  <si>
+    <t>1. Cualquier caída en el valor me haría sentir incómodo(a).</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2. Posibilidad de pérdida muy baja.</t>
+  </si>
+  <si>
+    <t>1. Siempre hacia un riesgo menor.</t>
+  </si>
+  <si>
+    <t>2. Muy bajo.</t>
+  </si>
+  <si>
+    <t>1. Peligro.</t>
+  </si>
+  <si>
+    <t>2. Sí, aunque muy raramente.</t>
+  </si>
+  <si>
+    <t>1. Definitivamente más seguridad laboral con un pequeño aumento salarial.</t>
+  </si>
+  <si>
+    <t>3. Medio.</t>
+  </si>
+  <si>
+    <t>2. Máximo 5%</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2. Principalmente hacia un riesgo menor.</t>
+  </si>
+  <si>
     <t>5. Alto.</t>
   </si>
   <si>
-    <t>1. Peligro.</t>
-  </si>
-  <si>
-    <t>3. Sí, aunque con poca frecuencia.</t>
-  </si>
-  <si>
-    <t>4. Probablemente menos seguridad laboral con un gran aumento salarial.</t>
-  </si>
-  <si>
-    <t>3. Combinación equitativa de salario y comisión.</t>
-  </si>
-  <si>
-    <t>4. Alto.</t>
-  </si>
-  <si>
-    <t>3. Medio.</t>
-  </si>
-  <si>
-    <t>5. Máximo 20%.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1. Cero, es decir, sin posibilidad de pérdida.</t>
-  </si>
-  <si>
-    <t>4. Principalmente hacia un mayor riesgo.</t>
+    <t>2. Incertidumbre.</t>
+  </si>
+  <si>
+    <t>4. Sí, con cierta frecuencia.</t>
+  </si>
+  <si>
+    <t>3. No estoy seguro.</t>
+  </si>
+  <si>
+    <t>4. Principalmente comisión.</t>
+  </si>
+  <si>
+    <t>3. Máximo 10%.</t>
   </si>
   <si>
     <t>Agresivo</t>
+  </si>
+  <si>
+    <t>Mod. Adverso</t>
+  </si>
+  <si>
+    <t>Adverso</t>
+  </si>
+  <si>
+    <t>Mod. Agresivo</t>
   </si>
   <si>
     <t xml:space="preserve">Creado: </t>
@@ -197,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0">
-  <autoFilter ref="A1:I16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I76" totalsRowShown="0">
+  <autoFilter ref="A1:I76"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Creado: "/>
     <tableColumn id="2" name="Nombre"/>
@@ -499,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,466 +636,2206 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>44509.24148148148</v>
+        <v>44510.89172453704</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
         <v>34</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>44510.88241898148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44510.89976851852</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>44510.89461805556</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>67</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>44510.89653935185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
